--- a/クリックポスト発送情報/20200811232307/英子日本发货表格8.11.xlsx
+++ b/クリックポスト発送情報/20200811232307/英子日本发货表格8.11.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>序号</t>
   </si>
@@ -185,6 +185,38 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628561674414</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628561674403</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628561674392</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628561674381</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628561674370</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628561674366</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628561674355</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>628561674344</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -193,7 +225,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -301,7 +333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -365,19 +397,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1118,7 +1153,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1493,7 +1528,9 @@
       <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="12" t="s">
@@ -1518,7 +1555,9 @@
       <c r="I3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="26" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
       <c r="A4" s="12" t="s">
@@ -1543,7 +1582,9 @@
       <c r="I4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="25"/>
+      <c r="K4" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
       <c r="A5" s="12" t="s">
@@ -1568,10 +1609,10 @@
       <c r="I5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="25"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="16"/>
@@ -1581,22 +1622,24 @@
       <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17" t="s">
         <v>42</v>
@@ -1604,14 +1647,16 @@
       <c r="D7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="K7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="K7" s="26" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17" t="s">
         <v>43</v>
@@ -1619,14 +1664,16 @@
       <c r="D8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="K8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="K8" s="26" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17" t="s">
         <v>44</v>
@@ -1634,11 +1681,13 @@
       <c r="D9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="K9" s="26" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
       <c r="A10" s="17" t="s">
@@ -1663,7 +1712,9 @@
       <c r="I10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="25"/>
+      <c r="K10" s="26" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1"/>
     <row r="12" spans="1:181" ht="121.95" customHeight="1"/>
